--- a/biology/Zoologie/Ceralocyna_marcelae/Ceralocyna_marcelae.xlsx
+++ b/biology/Zoologie/Ceralocyna_marcelae/Ceralocyna_marcelae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceralocyna marcelaeest une espèce de coléoptères de la famille des Cerambycidae[1]. Elle a été décrite par Frank T. Hovore (d) et John A. Chemsak (d) en 2005.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceralocyna marcelaeest une espèce de coléoptères de la famille des Cerambycidae. Elle a été décrite par Frank T. Hovore (d) et John A. Chemsak (d) en 2005.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, marcelae, lui a été donné en l'honneur de Marcela L. Monné (d) qui a contribué à la détermination de certaines espèces et a récemment révisé, avec Dilma Solange Napp (d), les données concernant le genre Ceralocyna[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, marcelae, lui a été donné en l'honneur de Marcela L. Monné (d) qui a contribué à la détermination de certaines espèces et a récemment révisé, avec Dilma Solange Napp (d), les données concernant le genre Ceralocyna.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(es) Frank T. Hovore et John A. Chemsak, « Three new species of Ceralocyna Viana, 1971 from Mexico and Ecuador (Cerambycidae: Cerambycinae, Trachyderini, Ancylocerina) », Folia Entomológica Mexicana, vol. 44,‎ novembre 2005, p. 45-53 (ISSN 0430-8603 et 2448-4776, lire en ligne)</t>
         </is>
